--- a/artfynd/A 57858-2022.xlsx
+++ b/artfynd/A 57858-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112300152</v>
+        <v>112300156</v>
       </c>
       <c r="B2" t="n">
-        <v>96720</v>
+        <v>56430</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,38 +692,43 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>Pärmsjön, Ång</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>631999</v>
+        <v>631994</v>
       </c>
       <c r="R2" t="n">
-        <v>7024309</v>
+        <v>7024419</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -782,10 +787,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112300156</v>
+        <v>112300153</v>
       </c>
       <c r="B3" t="n">
-        <v>56430</v>
+        <v>78713</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -798,39 +803,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Pärmsjön, Ång</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>631994</v>
+        <v>631999</v>
       </c>
       <c r="R3" t="n">
-        <v>7024419</v>
+        <v>7024309</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -889,10 +889,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112300153</v>
+        <v>112300160</v>
       </c>
       <c r="B4" t="n">
-        <v>78699</v>
+        <v>77650</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -905,21 +905,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>631999</v>
+        <v>632160</v>
       </c>
       <c r="R4" t="n">
-        <v>7024309</v>
+        <v>7024222</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -991,10 +991,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112300160</v>
+        <v>112300161</v>
       </c>
       <c r="B5" t="n">
-        <v>77636</v>
+        <v>77402</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1007,21 +1007,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>6446</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1093,10 +1093,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112300158</v>
+        <v>112300152</v>
       </c>
       <c r="B6" t="n">
-        <v>78699</v>
+        <v>96735</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1105,25 +1105,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1133,10 +1133,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>632058</v>
+        <v>631999</v>
       </c>
       <c r="R6" t="n">
-        <v>7024301</v>
+        <v>7024309</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1195,10 +1195,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112300155</v>
+        <v>112300158</v>
       </c>
       <c r="B7" t="n">
-        <v>95693</v>
+        <v>78713</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1207,25 +1207,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>221941</v>
+        <v>6458</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1235,10 +1235,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>631994</v>
+        <v>632058</v>
       </c>
       <c r="R7" t="n">
-        <v>7024419</v>
+        <v>7024301</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1297,10 +1297,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112300161</v>
+        <v>112300155</v>
       </c>
       <c r="B8" t="n">
-        <v>77388</v>
+        <v>95707</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1309,25 +1309,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6446</v>
+        <v>221941</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1337,10 +1337,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>632160</v>
+        <v>631994</v>
       </c>
       <c r="R8" t="n">
-        <v>7024222</v>
+        <v>7024419</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
